--- a/coordinates_sample/201颍川郡/201颍川郡.xlsx
+++ b/coordinates_sample/201颍川郡/201颍川郡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/201颍川郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76B529-F5EC-7549-80BA-BB7727F506BD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34659802-686C-E049-8DC6-5D253E66F811}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="800" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="800" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="201(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F20"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E211E941-AA08-3E4C-A35B-C694D73410C8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756300F6-F447-0A45-B20A-ED5C7DCB83C8}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/coordinates_sample/201颍川郡/201颍川郡.xlsx
+++ b/coordinates_sample/201颍川郡/201颍川郡.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/201颍川郡/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/201颍川郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34659802-686C-E049-8DC6-5D253E66F811}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE8A87-78FA-D741-B4A4-E09B072C4AAA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="800" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="5240" windowWidth="14400" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="201(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -561,18 +561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -630,7 +630,7 @@
         <v>82455</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -659,7 +659,7 @@
         <v>82805</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -688,7 +688,7 @@
         <v>83015</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -717,7 +717,7 @@
         <v>82803</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -746,7 +746,7 @@
         <v>83039</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -775,7 +775,7 @@
         <v>82061</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -804,7 +804,7 @@
         <v>83031</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -833,7 +833,7 @@
         <v>83036</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -862,7 +862,7 @@
         <v>82976</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -891,7 +891,7 @@
         <v>82792</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -920,7 +920,7 @@
         <v>83009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -949,7 +949,7 @@
         <v>83011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -978,7 +978,7 @@
         <v>44352</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>83024</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>82994</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>82969</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>82962</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>82893</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1152,7 +1152,6 @@
         <v>82900</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1663,7 +1662,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
